--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174824.98</v>
+        <v>173988.13</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29137.5</v>
+        <v>28998.02</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54477.19</v>
+        <v>54280.53</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104240.88</v>
+        <v>104194.03</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9901.85</v>
+        <v>9546.450000000001</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4414.72</v>
+        <v>4310.09</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>471.7</v>
+        <v>424.32</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1318.64</v>
+        <v>1232.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,85 +439,114 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173988.13</v>
+        <v>1232.71</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1263.59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28998.02</v>
+        <v>54280.53</v>
+      </c>
+      <c r="C3" t="n">
+        <v>54394.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54280.53</v>
+        <v>104194.03</v>
+      </c>
+      <c r="C4" t="n">
+        <v>103608.94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104194.03</v>
+        <v>9546.450000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9630.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9546.450000000001</v>
+        <v>4310.09</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4295.94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4310.09</v>
+        <v>424.32</v>
+      </c>
+      <c r="C7" t="n">
+        <v>408.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>424.32</v>
+        <v>28998.02</v>
+      </c>
+      <c r="C8" t="n">
+        <v>28933.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1232.71</v>
+        <v>173988.13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>173601.55</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,85 +439,114 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173601.55</v>
+        <v>1263.59</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1519.64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28933.59</v>
+        <v>54394.51</v>
+      </c>
+      <c r="C3" t="n">
+        <v>54407.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1263.59</v>
+        <v>103608.94</v>
+      </c>
+      <c r="C4" t="n">
+        <v>103625.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54394.51</v>
+        <v>9630.27</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9805.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103608.94</v>
+        <v>4295.94</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4026.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9630.27</v>
+        <v>408.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>445.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4295.94</v>
+        <v>28933.59</v>
+      </c>
+      <c r="C8" t="n">
+        <v>28971.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>408.3</v>
+        <v>173601.55</v>
+      </c>
+      <c r="C9" t="n">
+        <v>173830.78</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -493,9 +493,7 @@
       <c r="B5" t="n">
         <v>9630.27</v>
       </c>
-      <c r="C5" t="n">
-        <v>9805.98</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -533,7 +531,7 @@
         <v>28933.59</v>
       </c>
       <c r="C8" t="n">
-        <v>28971.8</v>
+        <v>32804.96</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +544,7 @@
         <v>173601.55</v>
       </c>
       <c r="C9" t="n">
-        <v>173830.78</v>
+        <v>164024.8</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1263.59</v>
+        <v>1245.06</v>
       </c>
       <c r="C2" t="n">
-        <v>1519.64</v>
+        <v>1399.83</v>
       </c>
       <c r="D2" t="n">
-        <v>1212.82</v>
+        <v>1389.08</v>
       </c>
       <c r="E2" t="n">
-        <v>1268.88</v>
+        <v>1295.34</v>
       </c>
       <c r="F2" t="n">
-        <v>1234.44</v>
+        <v>1416.41</v>
       </c>
       <c r="G2" t="n">
-        <v>1257.34</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1248.61</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1608.65</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1539.15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1420.95</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1289.56</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1245.06</v>
+        <v>1606.45</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54394.51</v>
+        <v>54337.22</v>
       </c>
       <c r="C3" t="n">
-        <v>54407.67</v>
+        <v>54397.6</v>
       </c>
       <c r="D3" t="n">
-        <v>54435.82</v>
+        <v>55614.48</v>
       </c>
       <c r="E3" t="n">
-        <v>54206.63</v>
+        <v>54237.21</v>
       </c>
       <c r="F3" t="n">
-        <v>54548.43</v>
+        <v>54451.99</v>
       </c>
       <c r="G3" t="n">
-        <v>54377.84</v>
-      </c>
-      <c r="H3" t="n">
-        <v>54316.68</v>
-      </c>
-      <c r="I3" t="n">
-        <v>54478.88</v>
-      </c>
-      <c r="J3" t="n">
-        <v>54595.47</v>
-      </c>
-      <c r="K3" t="n">
-        <v>54345.54</v>
-      </c>
-      <c r="L3" t="n">
-        <v>54486.18</v>
-      </c>
-      <c r="M3" t="n">
-        <v>54337.22</v>
+        <v>54220.98</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103608.94</v>
+        <v>104428.48</v>
       </c>
       <c r="C4" t="n">
-        <v>103625.92</v>
+        <v>104160.82</v>
       </c>
       <c r="D4" t="n">
-        <v>104512.81</v>
+        <v>106259.26</v>
       </c>
       <c r="E4" t="n">
-        <v>103627.45</v>
+        <v>104010.66</v>
       </c>
       <c r="F4" t="n">
-        <v>104214.85</v>
+        <v>103491.54</v>
       </c>
       <c r="G4" t="n">
-        <v>104281.62</v>
-      </c>
-      <c r="H4" t="n">
-        <v>103951.59</v>
-      </c>
-      <c r="I4" t="n">
-        <v>103562.52</v>
-      </c>
-      <c r="J4" t="n">
-        <v>103969.62</v>
-      </c>
-      <c r="K4" t="n">
-        <v>104177.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>103980.12</v>
-      </c>
-      <c r="M4" t="n">
-        <v>104428.48</v>
+        <v>103652.98</v>
       </c>
     </row>
     <row r="5">
@@ -631,38 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9630.27</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>10456.19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10195.23</v>
+      </c>
       <c r="D5" t="n">
-        <v>10228.31</v>
+        <v>10028.01</v>
       </c>
       <c r="E5" t="n">
-        <v>10037.51</v>
+        <v>9491.889999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>9536.48</v>
+        <v>10548.95</v>
       </c>
       <c r="G5" t="n">
-        <v>9729.459999999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9499.77</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9575.34</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10443.57</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9934.940000000001</v>
-      </c>
-      <c r="L5" t="n">
-        <v>9635.610000000001</v>
-      </c>
-      <c r="M5" t="n">
-        <v>10456.19</v>
+        <v>9290.76</v>
       </c>
     </row>
     <row r="6">
@@ -672,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4295.94</v>
+        <v>4319.08</v>
       </c>
       <c r="C6" t="n">
-        <v>4026.55</v>
+        <v>3662.32</v>
       </c>
       <c r="D6" t="n">
-        <v>4368.14</v>
+        <v>4498.88</v>
       </c>
       <c r="E6" t="n">
-        <v>3773.67</v>
+        <v>4005.52</v>
       </c>
       <c r="F6" t="n">
-        <v>3662.89</v>
+        <v>4264.77</v>
       </c>
       <c r="G6" t="n">
-        <v>3808.56</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3656.97</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3774.91</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3714.18</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4472.25</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4373.11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4319.08</v>
+        <v>3869.47</v>
       </c>
     </row>
     <row r="7">
@@ -715,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408.3</v>
+        <v>640.9400000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>445.02</v>
+        <v>338.57</v>
       </c>
       <c r="D7" t="n">
-        <v>475.49</v>
+        <v>671.87</v>
       </c>
       <c r="E7" t="n">
-        <v>478.15</v>
+        <v>623.42</v>
       </c>
       <c r="F7" t="n">
-        <v>451.57</v>
+        <v>654.5599999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>448.78</v>
-      </c>
-      <c r="H7" t="n">
-        <v>438.09</v>
-      </c>
-      <c r="I7" t="n">
-        <v>400.41</v>
-      </c>
-      <c r="J7" t="n">
-        <v>378.46</v>
-      </c>
-      <c r="K7" t="n">
-        <v>353.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>656.1799999999999</v>
-      </c>
-      <c r="M7" t="n">
-        <v>640.9400000000001</v>
+        <v>347.47</v>
       </c>
     </row>
     <row r="8">
@@ -758,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28933.59</v>
+        <v>29237.83</v>
       </c>
       <c r="C8" t="n">
-        <v>32804.96</v>
+        <v>29025.73</v>
       </c>
       <c r="D8" t="n">
-        <v>29205.57</v>
+        <v>29743.6</v>
       </c>
       <c r="E8" t="n">
-        <v>28898.72</v>
+        <v>28944.01</v>
       </c>
       <c r="F8" t="n">
-        <v>28941.44</v>
+        <v>29138.04</v>
       </c>
       <c r="G8" t="n">
-        <v>28983.93</v>
-      </c>
-      <c r="H8" t="n">
-        <v>28851.95</v>
-      </c>
-      <c r="I8" t="n">
-        <v>28900.12</v>
-      </c>
-      <c r="J8" t="n">
-        <v>29106.74</v>
-      </c>
-      <c r="K8" t="n">
-        <v>29117.35</v>
-      </c>
-      <c r="L8" t="n">
-        <v>29070.13</v>
-      </c>
-      <c r="M8" t="n">
-        <v>29237.83</v>
+        <v>28831.35</v>
       </c>
     </row>
     <row r="9">
@@ -801,40 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>173601.55</v>
+        <v>175426.97</v>
       </c>
       <c r="C9" t="n">
-        <v>164024.8</v>
+        <v>174154.37</v>
       </c>
       <c r="D9" t="n">
-        <v>175233.39</v>
+        <v>178461.58</v>
       </c>
       <c r="E9" t="n">
-        <v>173392.29</v>
+        <v>173664.04</v>
       </c>
       <c r="F9" t="n">
-        <v>173648.66</v>
+        <v>174828.22</v>
       </c>
       <c r="G9" t="n">
-        <v>173903.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>173111.71</v>
-      </c>
-      <c r="I9" t="n">
-        <v>173400.71</v>
-      </c>
-      <c r="J9" t="n">
-        <v>174640.45</v>
-      </c>
-      <c r="K9" t="n">
-        <v>174704.13</v>
-      </c>
-      <c r="L9" t="n">
-        <v>174420.76</v>
-      </c>
-      <c r="M9" t="n">
-        <v>175426.97</v>
+        <v>172988.11</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1263.59</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1519.64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1212.82</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1268.88</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1234.44</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1257.34</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1248.61</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1608.65</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1539.15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1420.95</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1289.56</v>
+      </c>
+      <c r="M2" t="n">
         <v>1245.06</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1399.83</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1389.08</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1295.34</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1416.41</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1606.45</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>54394.51</v>
+      </c>
+      <c r="C3" t="n">
+        <v>54407.67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>54435.82</v>
+      </c>
+      <c r="E3" t="n">
+        <v>54206.63</v>
+      </c>
+      <c r="F3" t="n">
+        <v>54548.43</v>
+      </c>
+      <c r="G3" t="n">
+        <v>54377.84</v>
+      </c>
+      <c r="H3" t="n">
+        <v>54316.68</v>
+      </c>
+      <c r="I3" t="n">
+        <v>54478.88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>54595.47</v>
+      </c>
+      <c r="K3" t="n">
+        <v>54345.54</v>
+      </c>
+      <c r="L3" t="n">
+        <v>54486.18</v>
+      </c>
+      <c r="M3" t="n">
         <v>54337.22</v>
-      </c>
-      <c r="C3" t="n">
-        <v>54397.6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>55614.48</v>
-      </c>
-      <c r="E3" t="n">
-        <v>54237.21</v>
-      </c>
-      <c r="F3" t="n">
-        <v>54451.99</v>
-      </c>
-      <c r="G3" t="n">
-        <v>54220.98</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>103608.94</v>
+      </c>
+      <c r="C4" t="n">
+        <v>103625.92</v>
+      </c>
+      <c r="D4" t="n">
+        <v>104512.81</v>
+      </c>
+      <c r="E4" t="n">
+        <v>103627.45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>104214.85</v>
+      </c>
+      <c r="G4" t="n">
+        <v>104281.62</v>
+      </c>
+      <c r="H4" t="n">
+        <v>103951.59</v>
+      </c>
+      <c r="I4" t="n">
+        <v>103562.52</v>
+      </c>
+      <c r="J4" t="n">
+        <v>103969.62</v>
+      </c>
+      <c r="K4" t="n">
+        <v>104177.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>103980.12</v>
+      </c>
+      <c r="M4" t="n">
         <v>104428.48</v>
-      </c>
-      <c r="C4" t="n">
-        <v>104160.82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>106259.26</v>
-      </c>
-      <c r="E4" t="n">
-        <v>104010.66</v>
-      </c>
-      <c r="F4" t="n">
-        <v>103491.54</v>
-      </c>
-      <c r="G4" t="n">
-        <v>103652.98</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,38 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>9630.27</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>10228.31</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10037.51</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9536.48</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9729.459999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9499.77</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9575.34</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10443.57</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9934.940000000001</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9635.610000000001</v>
+      </c>
+      <c r="M5" t="n">
         <v>10456.19</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10195.23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10028.01</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9491.889999999999</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10548.95</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9290.76</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +672,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>4295.94</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4026.55</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4368.14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3773.67</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3662.89</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3808.56</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3656.97</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3774.91</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3714.18</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4472.25</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4373.11</v>
+      </c>
+      <c r="M6" t="n">
         <v>4319.08</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3662.32</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4498.88</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4005.52</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4264.77</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3869.47</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +715,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>408.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>445.02</v>
+      </c>
+      <c r="D7" t="n">
+        <v>475.49</v>
+      </c>
+      <c r="E7" t="n">
+        <v>478.15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>451.57</v>
+      </c>
+      <c r="G7" t="n">
+        <v>448.78</v>
+      </c>
+      <c r="H7" t="n">
+        <v>438.09</v>
+      </c>
+      <c r="I7" t="n">
+        <v>400.41</v>
+      </c>
+      <c r="J7" t="n">
+        <v>378.46</v>
+      </c>
+      <c r="K7" t="n">
+        <v>353.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>656.1799999999999</v>
+      </c>
+      <c r="M7" t="n">
         <v>640.9400000000001</v>
-      </c>
-      <c r="C7" t="n">
-        <v>338.57</v>
-      </c>
-      <c r="D7" t="n">
-        <v>671.87</v>
-      </c>
-      <c r="E7" t="n">
-        <v>623.42</v>
-      </c>
-      <c r="F7" t="n">
-        <v>654.5599999999999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>347.47</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +758,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>28933.59</v>
+      </c>
+      <c r="C8" t="n">
+        <v>32804.96</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29205.57</v>
+      </c>
+      <c r="E8" t="n">
+        <v>28898.72</v>
+      </c>
+      <c r="F8" t="n">
+        <v>28941.44</v>
+      </c>
+      <c r="G8" t="n">
+        <v>28983.93</v>
+      </c>
+      <c r="H8" t="n">
+        <v>28851.95</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28900.12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29106.74</v>
+      </c>
+      <c r="K8" t="n">
+        <v>29117.35</v>
+      </c>
+      <c r="L8" t="n">
+        <v>29070.13</v>
+      </c>
+      <c r="M8" t="n">
         <v>29237.83</v>
-      </c>
-      <c r="C8" t="n">
-        <v>29025.73</v>
-      </c>
-      <c r="D8" t="n">
-        <v>29743.6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>28944.01</v>
-      </c>
-      <c r="F8" t="n">
-        <v>29138.04</v>
-      </c>
-      <c r="G8" t="n">
-        <v>28831.35</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +801,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>173601.55</v>
+      </c>
+      <c r="C9" t="n">
+        <v>164024.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>175233.39</v>
+      </c>
+      <c r="E9" t="n">
+        <v>173392.29</v>
+      </c>
+      <c r="F9" t="n">
+        <v>173648.66</v>
+      </c>
+      <c r="G9" t="n">
+        <v>173903.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>173111.71</v>
+      </c>
+      <c r="I9" t="n">
+        <v>173400.71</v>
+      </c>
+      <c r="J9" t="n">
+        <v>174640.45</v>
+      </c>
+      <c r="K9" t="n">
+        <v>174704.13</v>
+      </c>
+      <c r="L9" t="n">
+        <v>174420.76</v>
+      </c>
+      <c r="M9" t="n">
         <v>175426.97</v>
-      </c>
-      <c r="C9" t="n">
-        <v>174154.37</v>
-      </c>
-      <c r="D9" t="n">
-        <v>178461.58</v>
-      </c>
-      <c r="E9" t="n">
-        <v>173664.04</v>
-      </c>
-      <c r="F9" t="n">
-        <v>174828.22</v>
-      </c>
-      <c r="G9" t="n">
-        <v>172988.11</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AUSO.xlsx
+++ b/backend/src/excel_handler/files/AUSO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1263.59</v>
+        <v>1245.06</v>
       </c>
       <c r="C2" t="n">
-        <v>1519.64</v>
+        <v>1399.83</v>
       </c>
       <c r="D2" t="n">
-        <v>1212.82</v>
+        <v>1389.08</v>
       </c>
       <c r="E2" t="n">
-        <v>1268.88</v>
+        <v>1295.34</v>
       </c>
       <c r="F2" t="n">
-        <v>1234.44</v>
+        <v>1416.41</v>
       </c>
       <c r="G2" t="n">
-        <v>1257.34</v>
+        <v>1606.45</v>
       </c>
       <c r="H2" t="n">
-        <v>1248.61</v>
+        <v>1535.52</v>
       </c>
       <c r="I2" t="n">
-        <v>1608.65</v>
+        <v>1464.64</v>
       </c>
       <c r="J2" t="n">
-        <v>1539.15</v>
+        <v>1610.85</v>
       </c>
       <c r="K2" t="n">
-        <v>1420.95</v>
+        <v>1610.76</v>
       </c>
       <c r="L2" t="n">
-        <v>1289.56</v>
+        <v>1175.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1245.06</v>
+        <v>1385.29</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1504.01</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1621</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1765.82</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1811.63</v>
+      </c>
+      <c r="R2" t="n">
+        <v>956.0599999999999</v>
+      </c>
+      <c r="S2" t="n">
+        <v>941.1900000000001</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1806.15</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1807.11</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1046.12</v>
+      </c>
+      <c r="W2" t="n">
+        <v>935.79</v>
+      </c>
+      <c r="X2" t="n">
+        <v>965.34</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>923.54</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1569.55</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1446.01</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54394.51</v>
+        <v>54337.22</v>
       </c>
       <c r="C3" t="n">
-        <v>54407.67</v>
+        <v>54397.6</v>
       </c>
       <c r="D3" t="n">
-        <v>54435.82</v>
+        <v>55614.48</v>
       </c>
       <c r="E3" t="n">
-        <v>54206.63</v>
+        <v>54237.21</v>
       </c>
       <c r="F3" t="n">
-        <v>54548.43</v>
+        <v>54451.99</v>
       </c>
       <c r="G3" t="n">
-        <v>54377.84</v>
+        <v>54220.98</v>
       </c>
       <c r="H3" t="n">
-        <v>54316.68</v>
+        <v>54550.44</v>
       </c>
       <c r="I3" t="n">
-        <v>54478.88</v>
+        <v>54447.01</v>
       </c>
       <c r="J3" t="n">
-        <v>54595.47</v>
+        <v>54665.89</v>
       </c>
       <c r="K3" t="n">
-        <v>54345.54</v>
+        <v>54387.24</v>
       </c>
       <c r="L3" t="n">
-        <v>54486.18</v>
+        <v>54315.85</v>
       </c>
       <c r="M3" t="n">
-        <v>54337.22</v>
+        <v>54717.37</v>
+      </c>
+      <c r="N3" t="n">
+        <v>54145.65</v>
+      </c>
+      <c r="O3" t="n">
+        <v>54105.83</v>
+      </c>
+      <c r="P3" t="n">
+        <v>54481.78</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>54076.45</v>
+      </c>
+      <c r="R3" t="n">
+        <v>54020.79</v>
+      </c>
+      <c r="S3" t="n">
+        <v>54467.65</v>
+      </c>
+      <c r="T3" t="n">
+        <v>54903.11</v>
+      </c>
+      <c r="U3" t="n">
+        <v>54724.64</v>
+      </c>
+      <c r="V3" t="n">
+        <v>54606.49</v>
+      </c>
+      <c r="W3" t="n">
+        <v>54580.65</v>
+      </c>
+      <c r="X3" t="n">
+        <v>54353.9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>54326.63</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>54126.22</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>54374.48</v>
       </c>
     </row>
     <row r="4">
@@ -588,253 +742,654 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103608.94</v>
+        <v>104428.48</v>
       </c>
       <c r="C4" t="n">
-        <v>103625.92</v>
+        <v>104160.82</v>
       </c>
       <c r="D4" t="n">
-        <v>104512.81</v>
+        <v>106259.26</v>
       </c>
       <c r="E4" t="n">
-        <v>103627.45</v>
+        <v>104010.66</v>
       </c>
       <c r="F4" t="n">
-        <v>104214.85</v>
+        <v>103491.54</v>
       </c>
       <c r="G4" t="n">
-        <v>104281.62</v>
+        <v>103652.98</v>
       </c>
       <c r="H4" t="n">
-        <v>103951.59</v>
+        <v>103713.73</v>
       </c>
       <c r="I4" t="n">
-        <v>103562.52</v>
+        <v>103771.27</v>
       </c>
       <c r="J4" t="n">
-        <v>103969.62</v>
+        <v>103577.55</v>
       </c>
       <c r="K4" t="n">
-        <v>104177.4</v>
+        <v>103551.79</v>
       </c>
       <c r="L4" t="n">
-        <v>103980.12</v>
+        <v>104339.03</v>
       </c>
       <c r="M4" t="n">
-        <v>104428.48</v>
+        <v>104384.71</v>
+      </c>
+      <c r="N4" t="n">
+        <v>104457.09</v>
+      </c>
+      <c r="O4" t="n">
+        <v>104474.9</v>
+      </c>
+      <c r="P4" t="n">
+        <v>103619.35</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>104432.68</v>
+      </c>
+      <c r="R4" t="n">
+        <v>104035.8</v>
+      </c>
+      <c r="S4" t="n">
+        <v>103477.79</v>
+      </c>
+      <c r="T4" t="n">
+        <v>104422.07</v>
+      </c>
+      <c r="U4" t="n">
+        <v>104406.79</v>
+      </c>
+      <c r="V4" t="n">
+        <v>104370.96</v>
+      </c>
+      <c r="W4" t="n">
+        <v>103563.81</v>
+      </c>
+      <c r="X4" t="n">
+        <v>103578.93</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>103587.47</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>104001.14</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>103656.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9630.27</v>
-      </c>
+          <t>Delta Acciones</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>10228.31</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10037.51</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9536.48</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9729.459999999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9499.77</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9575.34</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10443.57</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9934.940000000001</v>
-      </c>
-      <c r="L5" t="n">
-        <v>9635.610000000001</v>
-      </c>
-      <c r="M5" t="n">
-        <v>10456.19</v>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>27037.67</v>
+      </c>
+      <c r="U5" t="n">
+        <v>26900.98</v>
+      </c>
+      <c r="V5" t="n">
+        <v>27102.43</v>
+      </c>
+      <c r="W5" t="n">
+        <v>26907.04</v>
+      </c>
+      <c r="X5" t="n">
+        <v>26868.52</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>26903.63</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>27082.21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>27063.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4295.94</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4026.55</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4368.14</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3773.67</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3662.89</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3808.56</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3656.97</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3774.91</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3714.18</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4472.25</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4373.11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4319.08</v>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>72378.64999999999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>72903.75</v>
+      </c>
+      <c r="V6" t="n">
+        <v>73632.64</v>
+      </c>
+      <c r="W6" t="n">
+        <v>72424.37</v>
+      </c>
+      <c r="X6" t="n">
+        <v>72605.48</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>73451.34</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>73452.14999999999</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>73359.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408.3</v>
+        <v>10456.19</v>
       </c>
       <c r="C7" t="n">
-        <v>445.02</v>
+        <v>10195.23</v>
       </c>
       <c r="D7" t="n">
-        <v>475.49</v>
+        <v>10028.01</v>
       </c>
       <c r="E7" t="n">
-        <v>478.15</v>
+        <v>9491.889999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>451.57</v>
+        <v>10548.95</v>
       </c>
       <c r="G7" t="n">
-        <v>448.78</v>
+        <v>9290.76</v>
       </c>
       <c r="H7" t="n">
-        <v>438.09</v>
+        <v>10253.61</v>
       </c>
       <c r="I7" t="n">
-        <v>400.41</v>
+        <v>10377.71</v>
       </c>
       <c r="J7" t="n">
-        <v>378.46</v>
+        <v>15606.94</v>
       </c>
       <c r="K7" t="n">
-        <v>353.05</v>
+        <v>16872.69</v>
       </c>
       <c r="L7" t="n">
-        <v>656.1799999999999</v>
+        <v>16539.32</v>
       </c>
       <c r="M7" t="n">
-        <v>640.9400000000001</v>
+        <v>17854.84</v>
+      </c>
+      <c r="N7" t="n">
+        <v>18779.89</v>
+      </c>
+      <c r="O7" t="n">
+        <v>18966.84</v>
+      </c>
+      <c r="P7" t="n">
+        <v>18306.39</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>17478.62</v>
+      </c>
+      <c r="R7" t="n">
+        <v>17907.97</v>
+      </c>
+      <c r="S7" t="n">
+        <v>17555.24</v>
+      </c>
+      <c r="T7" t="n">
+        <v>19119.66</v>
+      </c>
+      <c r="U7" t="n">
+        <v>19045.78</v>
+      </c>
+      <c r="V7" t="n">
+        <v>18219.12</v>
+      </c>
+      <c r="W7" t="n">
+        <v>17872.6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>18529.92</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>19030</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>18049.22</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17848.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28933.59</v>
+        <v>4319.08</v>
       </c>
       <c r="C8" t="n">
-        <v>32804.96</v>
+        <v>3662.32</v>
       </c>
       <c r="D8" t="n">
-        <v>29205.57</v>
+        <v>4498.88</v>
       </c>
       <c r="E8" t="n">
-        <v>28898.72</v>
+        <v>4005.52</v>
       </c>
       <c r="F8" t="n">
-        <v>28941.44</v>
+        <v>4264.77</v>
       </c>
       <c r="G8" t="n">
-        <v>28983.93</v>
+        <v>3869.47</v>
       </c>
       <c r="H8" t="n">
-        <v>28851.95</v>
+        <v>3715.13</v>
       </c>
       <c r="I8" t="n">
-        <v>28900.12</v>
+        <v>3683.79</v>
       </c>
       <c r="J8" t="n">
-        <v>29106.74</v>
+        <v>4319.37</v>
       </c>
       <c r="K8" t="n">
-        <v>29117.35</v>
+        <v>4200.07</v>
       </c>
       <c r="L8" t="n">
-        <v>29070.13</v>
+        <v>4466.82</v>
       </c>
       <c r="M8" t="n">
-        <v>29237.83</v>
+        <v>4047.69</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4273.18</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4320.63</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4625.44</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3655</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3804.98</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3697.88</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3649.77</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3625.82</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3771.13</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4455.77</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4588.3</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>4501.85</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>4653.79</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>4384.69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>HF Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>640.9400000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>338.57</v>
+      </c>
+      <c r="D9" t="n">
+        <v>671.87</v>
+      </c>
+      <c r="E9" t="n">
+        <v>623.42</v>
+      </c>
+      <c r="F9" t="n">
+        <v>654.5599999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>347.47</v>
+      </c>
+      <c r="H9" t="n">
+        <v>338.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>650.14</v>
+      </c>
+      <c r="J9" t="n">
+        <v>600.01</v>
+      </c>
+      <c r="K9" t="n">
+        <v>592.4400000000001</v>
+      </c>
+      <c r="L9" t="n">
+        <v>630.02</v>
+      </c>
+      <c r="M9" t="n">
+        <v>357.73</v>
+      </c>
+      <c r="N9" t="n">
+        <v>383.92</v>
+      </c>
+      <c r="O9" t="n">
+        <v>383.01</v>
+      </c>
+      <c r="P9" t="n">
+        <v>403.92</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>416.97</v>
+      </c>
+      <c r="R9" t="n">
+        <v>421.65</v>
+      </c>
+      <c r="S9" t="n">
+        <v>409</v>
+      </c>
+      <c r="T9" t="n">
+        <v>398.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>394.16</v>
+      </c>
+      <c r="V9" t="n">
+        <v>408.48</v>
+      </c>
+      <c r="W9" t="n">
+        <v>352.58</v>
+      </c>
+      <c r="X9" t="n">
+        <v>391.24</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>393.11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>393.28</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>368.39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Pionero Acciones</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>100939.38</v>
+      </c>
+      <c r="U10" t="n">
+        <v>99504.03999999999</v>
+      </c>
+      <c r="V10" t="n">
+        <v>99743.55</v>
+      </c>
+      <c r="W10" t="n">
+        <v>99843.12</v>
+      </c>
+      <c r="X10" t="n">
+        <v>100129.08</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>100329.19</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>99848.81</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>99756.77</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>29237.83</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29025.73</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29743.6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28944.01</v>
+      </c>
+      <c r="F11" t="n">
+        <v>29138.04</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28831.35</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29017.76</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29065.76</v>
+      </c>
+      <c r="J11" t="n">
+        <v>30063.43</v>
+      </c>
+      <c r="K11" t="n">
+        <v>30202.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>30244.34</v>
+      </c>
+      <c r="M11" t="n">
+        <v>30457.94</v>
+      </c>
+      <c r="N11" t="n">
+        <v>30590.62</v>
+      </c>
+      <c r="O11" t="n">
+        <v>30645.37</v>
+      </c>
+      <c r="P11" t="n">
+        <v>30533.78</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>30311.89</v>
+      </c>
+      <c r="R11" t="n">
+        <v>30191.21</v>
+      </c>
+      <c r="S11" t="n">
+        <v>30091.46</v>
+      </c>
+      <c r="T11" t="n">
+        <v>42739.41</v>
+      </c>
+      <c r="U11" t="n">
+        <v>42590.34</v>
+      </c>
+      <c r="V11" t="n">
+        <v>42544.55</v>
+      </c>
+      <c r="W11" t="n">
+        <v>42326.19</v>
+      </c>
+      <c r="X11" t="n">
+        <v>42445.63</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>42605.2</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>42575.15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>42473.23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>173601.55</v>
-      </c>
-      <c r="C9" t="n">
-        <v>164024.8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>175233.39</v>
-      </c>
-      <c r="E9" t="n">
-        <v>173392.29</v>
-      </c>
-      <c r="F9" t="n">
-        <v>173648.66</v>
-      </c>
-      <c r="G9" t="n">
-        <v>173903.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>173111.71</v>
-      </c>
-      <c r="I9" t="n">
-        <v>173400.71</v>
-      </c>
-      <c r="J9" t="n">
-        <v>174640.45</v>
-      </c>
-      <c r="K9" t="n">
-        <v>174704.13</v>
-      </c>
-      <c r="L9" t="n">
-        <v>174420.76</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="B12" t="n">
         <v>175426.97</v>
+      </c>
+      <c r="C12" t="n">
+        <v>174154.37</v>
+      </c>
+      <c r="D12" t="n">
+        <v>178461.58</v>
+      </c>
+      <c r="E12" t="n">
+        <v>173664.04</v>
+      </c>
+      <c r="F12" t="n">
+        <v>174828.22</v>
+      </c>
+      <c r="G12" t="n">
+        <v>172988.11</v>
+      </c>
+      <c r="H12" t="n">
+        <v>174106.53</v>
+      </c>
+      <c r="I12" t="n">
+        <v>174394.56</v>
+      </c>
+      <c r="J12" t="n">
+        <v>180380.61</v>
+      </c>
+      <c r="K12" t="n">
+        <v>181214.99</v>
+      </c>
+      <c r="L12" t="n">
+        <v>181466.05</v>
+      </c>
+      <c r="M12" t="n">
+        <v>182747.63</v>
+      </c>
+      <c r="N12" t="n">
+        <v>183543.74</v>
+      </c>
+      <c r="O12" t="n">
+        <v>183872.21</v>
+      </c>
+      <c r="P12" t="n">
+        <v>183202.7</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>181871.35</v>
+      </c>
+      <c r="R12" t="n">
+        <v>181147.25</v>
+      </c>
+      <c r="S12" t="n">
+        <v>180548.75</v>
+      </c>
+      <c r="T12" t="n">
+        <v>384654.71</v>
+      </c>
+      <c r="U12" t="n">
+        <v>383313.07</v>
+      </c>
+      <c r="V12" t="n">
+        <v>382900.92</v>
+      </c>
+      <c r="W12" t="n">
+        <v>380935.73</v>
+      </c>
+      <c r="X12" t="n">
+        <v>382010.71</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>383446.76</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>383176.37</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>382259.06</v>
       </c>
     </row>
   </sheetData>
